--- a/esbos/mpan_compliance.xlsx
+++ b/esbos/mpan_compliance.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BE$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BE$94</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="131">
   <si>
     <t>core_mpan</t>
   </si>
@@ -416,12 +416,6 @@
   <si>
     <t>2TG RCAMR LV Whole current</t>
   </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>No Requirement</t>
-  </si>
 </sst>
 </file>
 
@@ -743,40 +737,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF93"/>
+  <dimension ref="A1:BE94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ82" sqref="AZ82"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="13" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="10" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" customWidth="1"/>
+    <col min="28" max="41" width="9.140625" customWidth="1"/>
+    <col min="42" max="42" width="7.85546875" customWidth="1"/>
+    <col min="43" max="43" width="13" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" style="3" customWidth="1"/>
     <col min="45" max="45" width="10.42578125" customWidth="1"/>
-    <col min="46" max="46" width="9.42578125" customWidth="1"/>
-    <col min="47" max="47" width="8.5703125" customWidth="1"/>
-    <col min="48" max="48" width="12.85546875" customWidth="1"/>
+    <col min="46" max="46" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="11" customWidth="1"/>
     <col min="50" max="51" width="7.85546875" customWidth="1"/>
     <col min="52" max="52" width="10.5703125" customWidth="1"/>
     <col min="53" max="53" width="7.7109375" customWidth="1"/>
-    <col min="54" max="54" width="7.85546875" customWidth="1"/>
-    <col min="55" max="55" width="13.42578125" customWidth="1"/>
-    <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="57" max="57" width="16.42578125" customWidth="1"/>
+    <col min="54" max="54" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
@@ -1100,9 +1097,6 @@
       <c r="BD2" t="s">
         <v>105</v>
       </c>
-      <c r="BE2" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1255,9 +1249,6 @@
       <c r="BD3" t="s">
         <v>96</v>
       </c>
-      <c r="BE3" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1407,9 +1398,6 @@
       <c r="BD4" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="5" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1562,9 +1550,6 @@
       <c r="BD5" t="s">
         <v>94</v>
       </c>
-      <c r="BE5" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="6" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1717,9 +1702,6 @@
       <c r="BD6" t="s">
         <v>96</v>
       </c>
-      <c r="BE6" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1869,9 +1851,6 @@
       <c r="BD7" t="s">
         <v>96</v>
       </c>
-      <c r="BE7" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2021,9 +2000,6 @@
       <c r="BD8" t="s">
         <v>105</v>
       </c>
-      <c r="BE8" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="9" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2176,9 +2152,6 @@
       <c r="BD9" t="s">
         <v>96</v>
       </c>
-      <c r="BE9" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="10" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2331,9 +2304,6 @@
       <c r="BD10" t="s">
         <v>96</v>
       </c>
-      <c r="BE10" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="11" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2486,9 +2456,6 @@
       <c r="BD11" t="s">
         <v>96</v>
       </c>
-      <c r="BE11" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="12" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2641,9 +2608,6 @@
       <c r="BD12" t="s">
         <v>96</v>
       </c>
-      <c r="BE12" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2793,9 +2757,6 @@
       <c r="BD13" t="s">
         <v>105</v>
       </c>
-      <c r="BE13" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2945,9 +2906,6 @@
       <c r="BD14" t="s">
         <v>122</v>
       </c>
-      <c r="BE14" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="15" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -3100,9 +3058,6 @@
       <c r="BD15" t="s">
         <v>80</v>
       </c>
-      <c r="BE15" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="16" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -3255,11 +3210,8 @@
       <c r="BD16" t="s">
         <v>92</v>
       </c>
-      <c r="BE16" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="17" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2772276241292</v>
       </c>
@@ -3410,11 +3362,8 @@
       <c r="BD17" t="s">
         <v>92</v>
       </c>
-      <c r="BE17" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="18" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2956017120958</v>
       </c>
@@ -3565,11 +3514,8 @@
       <c r="BD18" t="s">
         <v>96</v>
       </c>
-      <c r="BE18" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3410839866362</v>
       </c>
@@ -3717,11 +3663,8 @@
       <c r="BD19" t="s">
         <v>105</v>
       </c>
-      <c r="BE19" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="20" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3418365613332</v>
       </c>
@@ -3872,11 +3815,8 @@
       <c r="BD20" t="s">
         <v>105</v>
       </c>
-      <c r="BE20" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3423661447081</v>
       </c>
@@ -4024,11 +3964,8 @@
       <c r="BD21" t="s">
         <v>96</v>
       </c>
-      <c r="BE21" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3443941870199</v>
       </c>
@@ -4176,11 +4113,8 @@
       <c r="BD22" t="s">
         <v>96</v>
       </c>
-      <c r="BE22" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3461423117934</v>
       </c>
@@ -4328,11 +4262,8 @@
       <c r="BD23" t="s">
         <v>96</v>
       </c>
-      <c r="BE23" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3469393009395</v>
       </c>
@@ -4480,11 +4411,8 @@
       <c r="BD24" t="s">
         <v>117</v>
       </c>
-      <c r="BE24" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3509459800459</v>
       </c>
@@ -4632,11 +4560,8 @@
       <c r="BD25" t="s">
         <v>96</v>
       </c>
-      <c r="BE25" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="26" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>3682359402484</v>
       </c>
@@ -4787,11 +4712,8 @@
       <c r="BD26" t="s">
         <v>96</v>
       </c>
-      <c r="BE26" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3763211303435</v>
       </c>
@@ -4939,11 +4861,8 @@
       <c r="BD27" t="s">
         <v>105</v>
       </c>
-      <c r="BE27" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>3810478604114</v>
       </c>
@@ -5091,11 +5010,8 @@
       <c r="BD28" t="s">
         <v>117</v>
       </c>
-      <c r="BE28" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3999125843217</v>
       </c>
@@ -5243,11 +5159,8 @@
       <c r="BD29" t="s">
         <v>125</v>
       </c>
-      <c r="BE29" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>4120404629778</v>
       </c>
@@ -5395,11 +5308,8 @@
       <c r="BD30" t="s">
         <v>125</v>
       </c>
-      <c r="BE30" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>4158895895066</v>
       </c>
@@ -5547,11 +5457,8 @@
       <c r="BD31" t="s">
         <v>96</v>
       </c>
-      <c r="BE31" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4177249484359</v>
       </c>
@@ -5699,11 +5606,8 @@
       <c r="BD32" t="s">
         <v>105</v>
       </c>
-      <c r="BE32" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="33" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4301184849197</v>
       </c>
@@ -5854,11 +5758,8 @@
       <c r="BD33" t="s">
         <v>105</v>
       </c>
-      <c r="BE33" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>4364205914339</v>
       </c>
@@ -6006,11 +5907,8 @@
       <c r="BD34" t="s">
         <v>117</v>
       </c>
-      <c r="BE34" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4496194088139</v>
       </c>
@@ -6158,11 +6056,8 @@
       <c r="BD35" t="s">
         <v>125</v>
       </c>
-      <c r="BE35" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>4848290348657</v>
       </c>
@@ -6310,11 +6205,8 @@
       <c r="BD36" t="s">
         <v>125</v>
       </c>
-      <c r="BE36" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4901429022308</v>
       </c>
@@ -6462,11 +6354,8 @@
       <c r="BD37" t="s">
         <v>96</v>
       </c>
-      <c r="BE37" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4901429029308</v>
       </c>
@@ -6614,11 +6503,8 @@
       <c r="BD38" t="s">
         <v>96</v>
       </c>
-      <c r="BE38" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>5107029992691</v>
       </c>
@@ -6766,11 +6652,8 @@
       <c r="BD39" t="s">
         <v>105</v>
       </c>
-      <c r="BE39" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>5202126438658</v>
       </c>
@@ -6918,11 +6801,8 @@
       <c r="BD40" t="s">
         <v>105</v>
       </c>
-      <c r="BE40" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>5410916887179</v>
       </c>
@@ -7073,11 +6953,8 @@
       <c r="BD41" t="s">
         <v>95</v>
       </c>
-      <c r="BE41" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>5421221417307</v>
       </c>
@@ -7228,11 +7105,8 @@
       <c r="BD42" t="s">
         <v>105</v>
       </c>
-      <c r="BE42" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>5742546315697</v>
       </c>
@@ -7380,11 +7254,8 @@
       <c r="BD43" t="s">
         <v>117</v>
       </c>
-      <c r="BE43" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>6054609733807</v>
       </c>
@@ -7535,11 +7406,8 @@
       <c r="BD44" t="s">
         <v>96</v>
       </c>
-      <c r="BE44" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>6180269411960</v>
       </c>
@@ -7690,11 +7558,8 @@
       <c r="BD45" t="s">
         <v>105</v>
       </c>
-      <c r="BE45" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>6251851295775</v>
       </c>
@@ -7845,11 +7710,8 @@
       <c r="BD46" t="s">
         <v>105</v>
       </c>
-      <c r="BE46" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>6406167790671</v>
       </c>
@@ -8000,11 +7862,8 @@
       <c r="BD47" t="s">
         <v>96</v>
       </c>
-      <c r="BE47" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>6431682203421</v>
       </c>
@@ -8152,11 +8011,8 @@
       <c r="BD48" t="s">
         <v>122</v>
       </c>
-      <c r="BE48" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>6500176678507</v>
       </c>
@@ -8307,11 +8163,8 @@
       <c r="BD49" t="s">
         <v>96</v>
       </c>
-      <c r="BE49" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>6564412683720</v>
       </c>
@@ -8459,11 +8312,8 @@
       <c r="BD50" t="s">
         <v>122</v>
       </c>
-      <c r="BE50" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>6605538104564</v>
       </c>
@@ -8614,11 +8464,8 @@
       <c r="BD51" t="s">
         <v>96</v>
       </c>
-      <c r="BE51" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>6625314259616</v>
       </c>
@@ -8769,11 +8616,8 @@
       <c r="BD52" t="s">
         <v>96</v>
       </c>
-      <c r="BE52" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>6723880732395</v>
       </c>
@@ -8924,11 +8768,8 @@
       <c r="BD53" t="s">
         <v>96</v>
       </c>
-      <c r="BE53" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>6901135634117</v>
       </c>
@@ -9079,11 +8920,8 @@
       <c r="BD54" t="s">
         <v>96</v>
       </c>
-      <c r="BE54" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>7137912666778</v>
       </c>
@@ -9234,11 +9072,8 @@
       <c r="BD55" t="s">
         <v>105</v>
       </c>
-      <c r="BE55" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>7384038948720</v>
       </c>
@@ -9389,11 +9224,8 @@
       <c r="BD56" t="s">
         <v>105</v>
       </c>
-      <c r="BE56" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>7534384469008</v>
       </c>
@@ -9541,11 +9373,8 @@
       <c r="BD57" t="s">
         <v>80</v>
       </c>
-      <c r="BE57" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>7582945654979</v>
       </c>
@@ -9696,11 +9525,8 @@
       <c r="BD58" t="s">
         <v>96</v>
       </c>
-      <c r="BE58" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>7589396261696</v>
       </c>
@@ -9851,11 +9677,8 @@
       <c r="BD59" t="s">
         <v>93</v>
       </c>
-      <c r="BE59" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>7712273891506</v>
       </c>
@@ -10006,11 +9829,8 @@
       <c r="BD60" t="s">
         <v>96</v>
       </c>
-      <c r="BE60" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>7734134409090</v>
       </c>
@@ -10158,11 +9978,8 @@
       <c r="BD61" t="s">
         <v>122</v>
       </c>
-      <c r="BE61" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>7821750156836</v>
       </c>
@@ -10310,11 +10127,8 @@
       <c r="BD62" t="s">
         <v>117</v>
       </c>
-      <c r="BE62" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>7996547323452</v>
       </c>
@@ -10462,11 +10276,8 @@
       <c r="BD63" t="s">
         <v>96</v>
       </c>
-      <c r="BE63" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>8029112596443</v>
       </c>
@@ -10617,11 +10428,8 @@
       <c r="BD64" t="s">
         <v>96</v>
       </c>
-      <c r="BE64" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>8103116616936</v>
       </c>
@@ -10769,11 +10577,8 @@
       <c r="BD65" t="s">
         <v>117</v>
       </c>
-      <c r="BE65" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>8167124411494</v>
       </c>
@@ -10921,11 +10726,8 @@
       <c r="BD66" t="s">
         <v>117</v>
       </c>
-      <c r="BE66" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>8808960723409</v>
       </c>
@@ -11076,11 +10878,8 @@
       <c r="BD67" t="s">
         <v>96</v>
       </c>
-      <c r="BE67" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>9143597840334</v>
       </c>
@@ -11231,11 +11030,8 @@
       <c r="BD68" t="s">
         <v>105</v>
       </c>
-      <c r="BE68" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>9253001101798</v>
       </c>
@@ -11386,11 +11182,8 @@
       <c r="BD69" t="s">
         <v>80</v>
       </c>
-      <c r="BE69" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>9253001101800</v>
       </c>
@@ -11541,11 +11334,8 @@
       <c r="BD70" t="s">
         <v>80</v>
       </c>
-      <c r="BE70" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>9411150472667</v>
       </c>
@@ -11696,11 +11486,8 @@
       <c r="BD71" t="s">
         <v>105</v>
       </c>
-      <c r="BE71" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>9429513529565</v>
       </c>
@@ -11851,11 +11638,8 @@
       <c r="BD72" t="s">
         <v>96</v>
       </c>
-      <c r="BE72" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>9568330583497</v>
       </c>
@@ -12006,11 +11790,8 @@
       <c r="BD73" t="s">
         <v>105</v>
       </c>
-      <c r="BE73" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>9728577091220</v>
       </c>
@@ -12158,11 +11939,8 @@
       <c r="BD74" t="s">
         <v>105</v>
       </c>
-      <c r="BE74" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>9899779148996</v>
       </c>
@@ -12313,11 +12091,8 @@
       <c r="BD75" t="s">
         <v>96</v>
       </c>
-      <c r="BE75" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>9899779218996</v>
       </c>
@@ -12468,11 +12243,8 @@
       <c r="BD76" t="s">
         <v>96</v>
       </c>
-      <c r="BE76" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>9904414961333</v>
       </c>
@@ -12623,11 +12395,8 @@
       <c r="BD77" t="s">
         <v>105</v>
       </c>
-      <c r="BE77" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>9907909390014</v>
       </c>
@@ -12775,11 +12544,8 @@
       <c r="BD78" t="s">
         <v>96</v>
       </c>
-      <c r="BE78" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>9953879230763</v>
       </c>
@@ -12927,11 +12693,8 @@
       <c r="BD79" t="s">
         <v>96</v>
       </c>
-      <c r="BE79" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="80" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>9253001101803</v>
       </c>
@@ -13082,11 +12845,8 @@
       <c r="BD80" t="s">
         <v>105</v>
       </c>
-      <c r="BE80" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="81" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>3682359402484</v>
       </c>
@@ -13237,11 +12997,8 @@
       <c r="BD81" t="s">
         <v>96</v>
       </c>
-      <c r="BE81" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="82" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>8029112596445</v>
       </c>
@@ -13392,11 +13149,8 @@
       <c r="BD82" t="s">
         <v>105</v>
       </c>
-      <c r="BE82" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="83" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>8029112596421</v>
       </c>
@@ -13547,11 +13301,8 @@
       <c r="BD83" t="s">
         <v>96</v>
       </c>
-      <c r="BE83" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="84" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>8808960721109</v>
       </c>
@@ -13702,11 +13453,8 @@
       <c r="BD84" t="s">
         <v>105</v>
       </c>
-      <c r="BE84" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="85" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>8228960723409</v>
       </c>
@@ -13857,11 +13605,8 @@
       <c r="BD85" t="s">
         <v>96</v>
       </c>
-      <c r="BE85" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="86" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>8808440723409</v>
       </c>
@@ -14012,11 +13757,8 @@
       <c r="BD86" t="s">
         <v>96</v>
       </c>
-      <c r="BE86" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="87" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>8808441423409</v>
       </c>
@@ -14167,11 +13909,8 @@
       <c r="BD87" t="s">
         <v>105</v>
       </c>
-      <c r="BE87" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="88" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>9899779228996</v>
       </c>
@@ -14322,11 +14061,8 @@
       <c r="BD88" t="s">
         <v>105</v>
       </c>
-      <c r="BE88" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="89" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>9899779118996</v>
       </c>
@@ -14477,11 +14213,8 @@
       <c r="BD89" t="s">
         <v>105</v>
       </c>
-      <c r="BE89" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="90" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>1308129206681</v>
       </c>
@@ -14632,14 +14365,8 @@
       <c r="BD90" t="s">
         <v>105</v>
       </c>
-      <c r="BE90" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF90" t="s">
-        <v>131</v>
-      </c>
     </row>
-    <row r="91" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>1308997806681</v>
       </c>
@@ -14790,11 +14517,8 @@
       <c r="BD91" t="s">
         <v>105</v>
       </c>
-      <c r="BE91" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="92" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>1308991106681</v>
       </c>
@@ -14945,11 +14669,8 @@
       <c r="BD92" t="s">
         <v>105</v>
       </c>
-      <c r="BE92" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="93" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>8808441420009</v>
       </c>
@@ -15100,12 +14821,155 @@
       <c r="BD93" t="s">
         <v>105</v>
       </c>
-      <c r="BE93" t="s">
-        <v>105</v>
+    </row>
+    <row r="94" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>9953879200000</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="1">
+        <v>43159</v>
+      </c>
+      <c r="D94" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" t="s">
+        <v>106</v>
+      </c>
+      <c r="I94" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94" t="s">
+        <v>60</v>
+      </c>
+      <c r="K94">
+        <v>147950146</v>
+      </c>
+      <c r="L94" t="s">
+        <v>61</v>
+      </c>
+      <c r="M94" t="s">
+        <v>62</v>
+      </c>
+      <c r="P94" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>63</v>
+      </c>
+      <c r="R94" t="s">
+        <v>64</v>
+      </c>
+      <c r="S94" t="s">
+        <v>65</v>
+      </c>
+      <c r="T94" s="1">
+        <v>43221</v>
+      </c>
+      <c r="U94" s="1">
+        <v>43951</v>
+      </c>
+      <c r="W94" t="s">
+        <v>66</v>
+      </c>
+      <c r="X94">
+        <v>4</v>
+      </c>
+      <c r="Y94">
+        <v>325</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>42651</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN94">
+        <v>127433.4</v>
+      </c>
+      <c r="AO94">
+        <v>110272.8</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS94" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT94" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU94" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV94" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW94" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX94" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY94" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ94" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA94" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB94" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BE93"/>
+  <autoFilter ref="A1:BE94"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
